--- a/biology/Botanique/Moutarde_des_champs/Moutarde_des_champs.xlsx
+++ b/biology/Botanique/Moutarde_des_champs/Moutarde_des_champs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sinapis arvensis
 La moutarde des champs, sanve ou sénevé (Sinapis arvensis), est une espèce de plante annuelle herbacée de la famille des brassicacées (aussi nommées crucifères), placée souvent dans les adventices (mauvaises herbes), envahissant champs et jardins.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Brassica arvensis (L.)
 Brassica kaber
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sinapis arvensis est une plante velue-hérissée de 30 à 80 cm de hauteur.
 Les feuilles inférieures sont lyrées  (au lobe terminal bien plus grand que les autres), les supérieures sont ovales ou oblongues, à marge sinuée-dentée et sans pétiole (sessiles).
@@ -579,9 +595,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est très commune dans toute la France et dans presque toute l'Europe, en Asie occidentale et centrale (de l'Afghanistan à la Mongolie) et en Afrique septentrionale. Son centre d'origine est la région méditerranéenne. Elle s'est naturalisée dans de nombreuses régions du monde, notamment au Canada[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est très commune dans toute la France et dans presque toute l'Europe, en Asie occidentale et centrale (de l'Afghanistan à la Mongolie) et en Afrique septentrionale. Son centre d'origine est la région méditerranéenne. Elle s'est naturalisée dans de nombreuses régions du monde, notamment au Canada.
 Elle se rencontre en plaine et en montagne, dans les champs et aux bords des chemins, dans les terrains vagues mais principalement dans les lieux cultivés calcaires.
 </t>
         </is>
@@ -611,10 +629,12 @@
           <t>Utilisations et toxicité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les jeunes plantes (feuilles, tiges et fleurs) peuvent être consommées. Elles ont des propriétés toniques, apéritives, digestives et dépuratives. Les graines une fois moulues peuvent donner une sorte de moutarde[2].
-La moutarde des champs a été signalée comme responsable d'empoisonnements du bétail au Canada, dus à la consommation de foin en contenant une grande quantité[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jeunes plantes (feuilles, tiges et fleurs) peuvent être consommées. Elles ont des propriétés toniques, apéritives, digestives et dépuratives. Les graines une fois moulues peuvent donner une sorte de moutarde.
+La moutarde des champs a été signalée comme responsable d'empoisonnements du bétail au Canada, dus à la consommation de foin en contenant une grande quantité.
 </t>
         </is>
       </c>
